--- a/2013/trekPlanning/TrekPlanning.xlsx
+++ b/2013/trekPlanning/TrekPlanning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22260" yWindow="2420" windowWidth="22820" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2100" yWindow="400" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>From</t>
   </si>
@@ -138,12 +138,6 @@
     <t>15 - 16</t>
   </si>
   <si>
-    <t>FUHSD Winter Break : 17 - 21</t>
-  </si>
-  <si>
-    <t>Campette for new scouts</t>
-  </si>
-  <si>
     <t>??</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>17 - 18</t>
   </si>
   <si>
-    <t>Memorial Day Weekend (24 - 26)</t>
-  </si>
-  <si>
     <t>13 - 15</t>
   </si>
   <si>
@@ -180,13 +171,82 @@
     <t>18-19</t>
   </si>
   <si>
-    <t>15-16</t>
-  </si>
-  <si>
-    <t>13-14</t>
-  </si>
-  <si>
     <t>Alcatraz ($2000, 35 max, 5 leader min, $58 / person)</t>
+  </si>
+  <si>
+    <t>17-19</t>
+  </si>
+  <si>
+    <t>Mt. Tam</t>
+  </si>
+  <si>
+    <t>8-9</t>
+  </si>
+  <si>
+    <t>Campette for new scouts (assume Pack 457 briding is 3/8 &amp; 3/9)</t>
+  </si>
+  <si>
+    <t>Pico Blanco</t>
+  </si>
+  <si>
+    <t>Memorial Day Weekend (24 - 26) , Mother's Day (11), S-O-R (5/10)</t>
+  </si>
+  <si>
+    <t>FUHSD Winter Break : 17 - 21, Backpacking from the Scout Camp; consider getting dining hall</t>
+  </si>
+  <si>
+    <t>Yosemite</t>
+  </si>
+  <si>
+    <t>Angel Island Biking ?</t>
+  </si>
+  <si>
+    <t>Skyline to the Sea (or some backpacking)</t>
+  </si>
+  <si>
+    <t>9-10</t>
+  </si>
+  <si>
+    <t>Beach</t>
+  </si>
+  <si>
+    <t>14-16</t>
+  </si>
+  <si>
+    <t>Fort Ross</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>Uvas Canyon</t>
+  </si>
+  <si>
+    <t>Alternate</t>
+  </si>
+  <si>
+    <t>Alcatraz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternate </t>
+  </si>
+  <si>
+    <t>Bicycle Trek</t>
+  </si>
+  <si>
+    <t>USS Hornet</t>
+  </si>
+  <si>
+    <t>JUL/AUG</t>
+  </si>
+  <si>
+    <t>White Water rafting</t>
+  </si>
+  <si>
+    <t>High Adventure 50 miler</t>
+  </si>
+  <si>
+    <t>Invite Cubs</t>
   </si>
 </sst>
 </file>
@@ -284,14 +344,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -311,9 +379,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -330,12 +395,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -667,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -686,7 +763,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="30">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -694,25 +771,25 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -720,7 +797,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="18">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -753,16 +830,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="43.1640625" style="1" customWidth="1"/>
     <col min="5" max="7" width="23.5" customWidth="1"/>
     <col min="8" max="12" width="16.6640625" customWidth="1"/>
@@ -772,22 +849,22 @@
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -798,36 +875,39 @@
       <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
+      <c r="B3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -835,24 +915,27 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:7" ht="30">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
@@ -860,137 +943,212 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
+      <c r="B8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>71</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
       <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="B14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>66</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="45">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
         <v>24</v>
       </c>
     </row>
